--- a/data/Diagnostico.xlsx
+++ b/data/Diagnostico.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27109"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="271" documentId="11_BC30D1DE80CC4242E268565A893E8C1851039F94" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C493743-95A3-4BB3-8E33-D3230FEE166A}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="11_BC30D1DE80CC4242E268565A893E8C1851039F94" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AB586B0-6880-4AC5-819B-EAFB4308BE65}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>VUhHovX86EGcSMJ9tFLW3eliBq_LQmRApCNJlTPGic1UQTdRTDRSWUNJMEIwUVczTlRYNzVRNUY3OC4u</t>
   </si>
@@ -206,6 +206,54 @@
   </si>
   <si>
     <t>Blá, blá, blá</t>
+  </si>
+  <si>
+    <t>apdan@mpes.mp.br</t>
+  </si>
+  <si>
+    <t>Ana Paula Senna Dan Rossoni</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>1º Promotor de Justiça</t>
+  </si>
+  <si>
+    <t>Não se aplica</t>
+  </si>
+  <si>
+    <t>Atuação plena;</t>
+  </si>
+  <si>
+    <t>crimes patrimoniais
+saúde</t>
+  </si>
+  <si>
+    <t>Águia Branca é um município localizado no estado do Espírito Santo, Brasil. Com uma população de aproximadamente X mil habitantes, a cidade apresenta características que refletem sua identidade local e desafios específicos.
+Geografia e Ambiente:
+Águia Branca possui uma geografia diversificada, com áreas urbanas e rurais. A região pode ser caracterizada por suas paisagens naturais, que incluem áreas verdes e recursos hídricos. O clima, provavelmente subtropical, influencia a vida cotidiana dos residentes.
+Economia:
+A economia do município pode ser influenciada por setores como agricultura, pecuária e possivelmente atividades industriais. A produção agrícola pode incluir culturas típicas da região, como café, feijão, e outros produtos. É relevante investigar o papel das pequenas e médias empresas na sustentabilidade econômica local.
+Educação:
+O acesso à educação é vital para o desenvolvimento sustentável. Instituições de ensino, desde creches até escolas de ensino médio, devem ser avaliadas quanto à qualidade, infraestrutura e disponibilidade de recursos. Programas educacionais e parcerias com organizações locais podem ser cruciais para melhorar a qualidade da educação.
+Saúde:
+A infraestrutura de saúde, incluindo postos de saúde e hospitais, é essencial para o bem-estar da população. É fundamental analisar a disponibilidade de serviços de saúde, o acesso a medicamentos e a cobertura de programas preventivos.
+Infraestrutura:
+A infraestrutura urbana e rural desempenha um papel crucial na qualidade de vida. Estradas, transporte público, fornecimento de água e coleta de resíduos são aspectos a serem considerados. Investimentos em infraestrutura podem impulsionar o desenvolvimento econômico e melhorar a qualidade de vida.
+Cultura e Lazer:
+A cultura local, expressa por festivais, eventos e tradições, é um componente significativo da identidade de Águia Branca. Investir em atividades culturais e recreativas pode fortalecer os laços comunitários e atrair visitantes.
+Desafios e Oportunidades:
+Identificar os desafios enfrentados pelo município, como desigualdades socioeconômicas, infraestrutura deficiente ou questões ambientais, é crucial para o planejamento estratégico. Ao mesmo tempo, é importante identificar oportunidades de crescimento, como o desenvolvimento de setores econômicos emergentes e parcerias público-privadas.
+Sustentabilidade:
+A busca por práticas sustentáveis é vital para garantir um futuro equilibrado para Águia Branca. Isso inclui a promoção de práticas agrícolas sustentáveis, gestão eficiente de recursos naturais e a implementação de políticas que visem à preservação ambiental.
+Participação Comunitária:
+O envolvimento ativo da comunidade no processo de tomada de decisões é crucial. Incentivar a participação cívica e a formação de parcerias entre o governo local, organizações não governamentais e setor privado pode fortalecer a governança e impulsionar o desenvolvimento sustentável.
+Conclusão:
+Águia Branca apresenta um cenário diversificado, com desafios e oportunidades únicos. Um diagnóstico abrangente é essencial para orientar políticas públicas e ações que visem a melhoria da qualidade de vida da população, impulsionando o desenvolvimento sustentável e promovendo a prosperidade a longo prazo.</t>
+  </si>
+  <si>
+    <t>Águia Branca apresenta um cenário diversificado, com desafios e oportunidades únicos. Um diagnóstico abrangente é essencial para orientar políticas públicas e ações que visem a melhoria da qualidade de vida da população, impulsionando o desenvolvimento sustentável e promovendo a prosperidade a longo prazo.</t>
   </si>
 </sst>
 </file>
@@ -348,8 +396,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E517FB03-EF81-416D-ACA3-4437AFC593C3}" name="Tabela1" displayName="Tabela1" ref="A1:W4" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:W4" xr:uid="{E517FB03-EF81-416D-ACA3-4437AFC593C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E517FB03-EF81-416D-ACA3-4437AFC593C3}" name="Tabela1" displayName="Tabela1" ref="A1:W5" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:W5" xr:uid="{E517FB03-EF81-416D-ACA3-4437AFC593C3}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{C00F9E6A-7EA4-434B-AE41-77BBC208EAF0}" name="ID" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{93A84170-923B-47C6-88F4-089E3E4AFDC4}" name="Hora de início" dataDxfId="21"/>
@@ -706,7 +754,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EA5133-2D2E-453E-AAF2-4359029956CF}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -893,7 +941,7 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="5">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -902,53 +950,106 @@
       <c r="C4" s="2">
         <v>45250.732499999998</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>48</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="J4" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="5" t="s">
+      <c r="P4" s="3"/>
+      <c r="Q4" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5" t="s">
+      <c r="W4" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="409.6">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45251.626342592594</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45251.629942129628</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
